--- a/Data/login.xlsx
+++ b/Data/login.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koush\eclipse-workspace\SeleniumStart4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FDF15D-BF23-42F6-A65F-4AD8468817C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD538F-A694-44CF-8621-A8C70C65009F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12984" yWindow="1380" windowWidth="8652" windowHeight="7716" xr2:uid="{F2ED0EFD-5B2E-473E-8A18-F6B398040B55}"/>
+    <workbookView xWindow="12984" yWindow="1380" windowWidth="8652" windowHeight="7716" activeTab="1" xr2:uid="{F2ED0EFD-5B2E-473E-8A18-F6B398040B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>user</t>
   </si>
@@ -74,12 +74,46 @@
   </si>
   <si>
     <t>expected</t>
+  </si>
+  <si>
+    <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Sauce Labs Bike Light</t>
+  </si>
+  <si>
+    <t>Sauce Labs Bolt T-Shirt</t>
+  </si>
+  <si>
+    <t>Sauce Labs Fleece Jacket</t>
+  </si>
+  <si>
+    <t>Sauce Labs Onesie</t>
+  </si>
+  <si>
+    <t>$29.99</t>
+  </si>
+  <si>
+    <t>$9.99</t>
+  </si>
+  <si>
+    <t>$15.99</t>
+  </si>
+  <si>
+    <t>$49.99</t>
+  </si>
+  <si>
+    <t>$7.99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,25 +487,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A91BAC-98BA-4C96-88BE-C67614EA75F5}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.109375"/>
+    <col min="2" max="2" customWidth="true" width="15.5546875"/>
+    <col min="3" max="3" customWidth="true" width="33.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -548,13 +582,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F5CF90-7970-43B4-BA17-1683E5F0C476}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.6640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/login.xlsx
+++ b/Data/login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koush\eclipse-workspace\SeleniumStart4\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koush\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD538F-A694-44CF-8621-A8C70C65009F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC3FB2B-D09F-400A-BB3C-7933403079E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12984" yWindow="1380" windowWidth="8652" windowHeight="7716" activeTab="1" xr2:uid="{F2ED0EFD-5B2E-473E-8A18-F6B398040B55}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>user</t>
   </si>
@@ -70,12 +70,6 @@
     <t>secret_sauce</t>
   </si>
   <si>
-    <t>https://www.saucedemo.com/inventory.html</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>Sauce Labs Backpack</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>Sauce Labs Fleece Jacket</t>
   </si>
   <si>
-    <t>Sauce Labs Onesie</t>
-  </si>
-  <si>
     <t>$29.99</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
   </si>
   <si>
     <t>$49.99</t>
-  </si>
-  <si>
-    <t>$7.99</t>
   </si>
 </sst>
 </file>
@@ -114,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +114,12 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,9 +142,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,95 +480,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A91BAC-98BA-4C96-88BE-C67614EA75F5}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="19.109375"/>
     <col min="2" max="2" customWidth="true" width="15.5546875"/>
-    <col min="3" max="3" customWidth="true" width="33.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -582,73 +559,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F5CF90-7970-43B4-BA17-1683E5F0C476}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.6640625"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
